--- a/CHOROBOWE_osoby fizyczne-2.xlsx
+++ b/CHOROBOWE_osoby fizyczne-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mypc/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8569BA-93E4-CD44-AA8D-F966BB339DE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E02A24-1D7E-6E46-85FB-EA887F099491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1776,7 +1776,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1943,6 +1943,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="64">
     <cellStyle name="20% — akcent 1" xfId="37" builtinId="30" customBuiltin="1"/>
@@ -2346,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -2387,6 +2388,9 @@
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
       <c r="D1" s="1"/>
+      <c r="F1" s="62">
+        <v>42460</v>
+      </c>
     </row>
     <row r="2" spans="1:50" ht="14.25" customHeight="1">
       <c r="A2" s="41"/>
